--- a/Textbook Companion/Chapter52/Practice Files/Hidden.xlsx
+++ b/Textbook Companion/Chapter52/Practice Files/Hidden.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19001"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Microsoft Press\Ch52charting\Practice Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitRepo\Essential-Statistics-for-Data-Analysis-using-Excel\Textbook Companion\Chapter52\Practice Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="48" windowWidth="14352" windowHeight="8760"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet11" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="m/d"/>
@@ -80,7 +80,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Comma 2" xfId="1"/>
+    <cellStyle name="Comma 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
@@ -104,7 +104,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -143,7 +143,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2414,6 +2413,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9654-4015-ACCE-E36A68248151}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -2578,7 +2582,2508 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet11!$B$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Sales</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet11!$A$3:$A$367</c:f>
+              <c:numCache>
+                <c:formatCode>m/d</c:formatCode>
+                <c:ptCount val="365"/>
+                <c:pt idx="0">
+                  <c:v>40179</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40180</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40181</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40182</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40183</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>40184</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>40185</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40186</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>40187</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>40188</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>40189</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>40190</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>40191</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>40192</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>40193</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>40194</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>40195</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>40196</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>40197</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>40198</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>40199</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>40200</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>40201</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>40202</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>40203</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>40204</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>40205</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>40206</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>40207</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>40208</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>40209</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>40210</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>40211</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>40212</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>40213</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>40214</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>40215</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>40216</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>40217</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>40218</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>40219</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>40220</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>40221</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>40222</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>40223</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>40224</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>40225</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>40226</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>40227</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>40228</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>40229</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>40230</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>40231</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>40232</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>40233</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>40234</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>40235</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>40236</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>40237</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>40238</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>40239</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>40240</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>40241</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>40242</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>40243</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>40244</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>40245</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>40246</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>40247</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>40248</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>40249</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>40250</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>40251</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>40252</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>40253</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>40254</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>40255</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>40256</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>40257</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>40258</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>40259</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>40260</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>40261</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>40262</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>40263</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>40264</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>40265</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>40266</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>40267</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>40268</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>40269</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>40270</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>40271</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>40272</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>40273</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>40274</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>40275</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>40276</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>40277</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>40278</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>40279</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>40280</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>40281</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>40282</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>40283</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>40284</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>40285</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>40286</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>40287</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>40288</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>40289</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>40290</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>40291</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>40292</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>40293</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>40294</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>40295</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>40296</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>40297</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>40298</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>40299</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>40300</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>40301</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>40302</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>40303</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>40304</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>40305</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>40306</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>40307</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>40308</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>40309</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>40310</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>40311</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>40312</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>40313</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>40314</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>40315</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>40316</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>40317</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>40318</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>40319</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>40320</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>40321</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>40322</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>40323</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>40324</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>40325</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>40326</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>40327</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>40328</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>40329</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>40330</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>40331</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>40332</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>40333</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>40334</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>40335</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>40336</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>40337</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>40338</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>40339</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>40340</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>40341</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>40342</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>40343</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>40344</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>40345</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>40346</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>40347</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>40348</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>40349</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>40350</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>40351</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>40352</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>40353</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>40354</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>40355</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>40356</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>40357</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>40358</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>40359</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>40360</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>40361</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>40362</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>40363</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>40364</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>40365</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>40366</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>40367</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>40368</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>40369</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>40370</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>40371</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>40372</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>40373</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>40374</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>40375</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>40376</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>40377</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>40378</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>40379</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>40380</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>40381</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>40382</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>40383</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>40384</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>40385</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>40386</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>40387</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>40388</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>40389</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>40390</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>40391</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>40392</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>40393</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>40394</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>40395</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>40396</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>40397</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>40398</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>40399</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>40400</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>40401</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>40402</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>40403</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>40404</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>40405</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>40406</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>40407</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>40408</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>40409</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>40410</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>40411</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>40412</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>40413</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>40414</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>40415</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>40416</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>40417</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>40418</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>40419</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>40420</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>40421</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>40422</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>40423</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>40424</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>40425</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>40426</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>40427</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>40428</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>40429</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>40430</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>40431</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>40432</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>40433</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>40434</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>40435</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>40436</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>40437</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>40438</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>40439</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>40440</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>40441</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>40442</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>40443</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>40444</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>40445</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>40446</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>40447</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>40448</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>40449</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>40450</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>40451</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>40452</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>40453</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>40454</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>40455</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>40456</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>40457</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>40458</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>40459</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>40460</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>40461</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>40462</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>40463</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>40464</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>40465</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>40466</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>40467</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>40468</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>40469</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>40470</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>40471</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>40472</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>40473</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>40474</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>40475</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>40476</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>40477</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>40478</c:v>
+                </c:pt>
+                <c:pt idx="300">
+                  <c:v>40479</c:v>
+                </c:pt>
+                <c:pt idx="301">
+                  <c:v>40480</c:v>
+                </c:pt>
+                <c:pt idx="302">
+                  <c:v>40481</c:v>
+                </c:pt>
+                <c:pt idx="303">
+                  <c:v>40482</c:v>
+                </c:pt>
+                <c:pt idx="304">
+                  <c:v>40483</c:v>
+                </c:pt>
+                <c:pt idx="305">
+                  <c:v>40484</c:v>
+                </c:pt>
+                <c:pt idx="306">
+                  <c:v>40485</c:v>
+                </c:pt>
+                <c:pt idx="307">
+                  <c:v>40486</c:v>
+                </c:pt>
+                <c:pt idx="308">
+                  <c:v>40487</c:v>
+                </c:pt>
+                <c:pt idx="309">
+                  <c:v>40488</c:v>
+                </c:pt>
+                <c:pt idx="310">
+                  <c:v>40489</c:v>
+                </c:pt>
+                <c:pt idx="311">
+                  <c:v>40490</c:v>
+                </c:pt>
+                <c:pt idx="312">
+                  <c:v>40491</c:v>
+                </c:pt>
+                <c:pt idx="313">
+                  <c:v>40492</c:v>
+                </c:pt>
+                <c:pt idx="314">
+                  <c:v>40493</c:v>
+                </c:pt>
+                <c:pt idx="315">
+                  <c:v>40494</c:v>
+                </c:pt>
+                <c:pt idx="316">
+                  <c:v>40495</c:v>
+                </c:pt>
+                <c:pt idx="317">
+                  <c:v>40496</c:v>
+                </c:pt>
+                <c:pt idx="318">
+                  <c:v>40497</c:v>
+                </c:pt>
+                <c:pt idx="319">
+                  <c:v>40498</c:v>
+                </c:pt>
+                <c:pt idx="320">
+                  <c:v>40499</c:v>
+                </c:pt>
+                <c:pt idx="321">
+                  <c:v>40500</c:v>
+                </c:pt>
+                <c:pt idx="322">
+                  <c:v>40501</c:v>
+                </c:pt>
+                <c:pt idx="323">
+                  <c:v>40502</c:v>
+                </c:pt>
+                <c:pt idx="324">
+                  <c:v>40503</c:v>
+                </c:pt>
+                <c:pt idx="325">
+                  <c:v>40504</c:v>
+                </c:pt>
+                <c:pt idx="326">
+                  <c:v>40505</c:v>
+                </c:pt>
+                <c:pt idx="327">
+                  <c:v>40506</c:v>
+                </c:pt>
+                <c:pt idx="328">
+                  <c:v>40507</c:v>
+                </c:pt>
+                <c:pt idx="329">
+                  <c:v>40508</c:v>
+                </c:pt>
+                <c:pt idx="330">
+                  <c:v>40509</c:v>
+                </c:pt>
+                <c:pt idx="331">
+                  <c:v>40510</c:v>
+                </c:pt>
+                <c:pt idx="332">
+                  <c:v>40511</c:v>
+                </c:pt>
+                <c:pt idx="333">
+                  <c:v>40512</c:v>
+                </c:pt>
+                <c:pt idx="334">
+                  <c:v>40513</c:v>
+                </c:pt>
+                <c:pt idx="335">
+                  <c:v>40514</c:v>
+                </c:pt>
+                <c:pt idx="336">
+                  <c:v>40515</c:v>
+                </c:pt>
+                <c:pt idx="337">
+                  <c:v>40516</c:v>
+                </c:pt>
+                <c:pt idx="338">
+                  <c:v>40517</c:v>
+                </c:pt>
+                <c:pt idx="339">
+                  <c:v>40518</c:v>
+                </c:pt>
+                <c:pt idx="340">
+                  <c:v>40519</c:v>
+                </c:pt>
+                <c:pt idx="341">
+                  <c:v>40520</c:v>
+                </c:pt>
+                <c:pt idx="342">
+                  <c:v>40521</c:v>
+                </c:pt>
+                <c:pt idx="343">
+                  <c:v>40522</c:v>
+                </c:pt>
+                <c:pt idx="344">
+                  <c:v>40523</c:v>
+                </c:pt>
+                <c:pt idx="345">
+                  <c:v>40524</c:v>
+                </c:pt>
+                <c:pt idx="346">
+                  <c:v>40525</c:v>
+                </c:pt>
+                <c:pt idx="347">
+                  <c:v>40526</c:v>
+                </c:pt>
+                <c:pt idx="348">
+                  <c:v>40527</c:v>
+                </c:pt>
+                <c:pt idx="349">
+                  <c:v>40528</c:v>
+                </c:pt>
+                <c:pt idx="350">
+                  <c:v>40529</c:v>
+                </c:pt>
+                <c:pt idx="351">
+                  <c:v>40530</c:v>
+                </c:pt>
+                <c:pt idx="352">
+                  <c:v>40531</c:v>
+                </c:pt>
+                <c:pt idx="353">
+                  <c:v>40532</c:v>
+                </c:pt>
+                <c:pt idx="354">
+                  <c:v>40533</c:v>
+                </c:pt>
+                <c:pt idx="355">
+                  <c:v>40534</c:v>
+                </c:pt>
+                <c:pt idx="356">
+                  <c:v>40535</c:v>
+                </c:pt>
+                <c:pt idx="357">
+                  <c:v>40536</c:v>
+                </c:pt>
+                <c:pt idx="358">
+                  <c:v>40537</c:v>
+                </c:pt>
+                <c:pt idx="359">
+                  <c:v>40538</c:v>
+                </c:pt>
+                <c:pt idx="360">
+                  <c:v>40539</c:v>
+                </c:pt>
+                <c:pt idx="361">
+                  <c:v>40540</c:v>
+                </c:pt>
+                <c:pt idx="362">
+                  <c:v>40541</c:v>
+                </c:pt>
+                <c:pt idx="363">
+                  <c:v>40542</c:v>
+                </c:pt>
+                <c:pt idx="364">
+                  <c:v>40543</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet11!$B$3:$B$367</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="365"/>
+                <c:pt idx="0">
+                  <c:v>205</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>498</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>163</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>437</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>291</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>199</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>454</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>228</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>247</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>403</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>137</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>370</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>262</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>308</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>340</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>216</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>357</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>429</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>361</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>408</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>251</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>242</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>157</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>235</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>424</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>403</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>430</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>318</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>368</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>317</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>186</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>479</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>348</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>205</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>289</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>494</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>269</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>480</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>426</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>431</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>484</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>446</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>442</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>418</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>216</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>290</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>184</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>439</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>166</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>157</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>167</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>157</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>269</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>303</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>367</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>357</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>134</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>336</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>355</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>226</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>377</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>161</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>444</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>212</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>354</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>358</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>429</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>217</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>148</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>236</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>492</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>291</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>339</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>366</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>211</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>388</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>123</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>421</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>392</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>191</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>117</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>303</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>405</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>437</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>167</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>488</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>420</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>394</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>449</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>469</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>292</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>194</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>368</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>158</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>479</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>275</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>259</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>276</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>347</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>167</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>408</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>109</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>192</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>149</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>466</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>235</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>471</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>263</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>116</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>149</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>376</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>471</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>460</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>198</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>364</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>426</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>178</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>408</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>392</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>355</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>183</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>202</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>432</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>392</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>374</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>314</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>420</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>123</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>381</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>373</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>141</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>207</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>277</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>367</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>276</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>308</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>381</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>234</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>121</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>156</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>216</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>375</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>484</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>464</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>147</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>227</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>498</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>269</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>337</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>231</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>296</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>476</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>423</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>358</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>212</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>221</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>207</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>252</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>365</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>383</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>490</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>195</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>142</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>386</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>149</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>118</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>167</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>338</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>472</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>181</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>244</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>483</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>165</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>231</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>333</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>462</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>213</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>340</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>388</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>488</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>347</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>247</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>216</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>454</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>429</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>424</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>276</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>359</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>127</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>201</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>245</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>109</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>332</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>377</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>493</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>465</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>147</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>472</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>474</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>410</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>339</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>206</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>398</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>466</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>191</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>435</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>398</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>326</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>261</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>146</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>427</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>340</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>409</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>141</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>289</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>378</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>392</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>408</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>390</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>421</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>264</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>292</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>367</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>327</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>455</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>343</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>372</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>383</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>491</c:v>
+                </c:pt>
+                <c:pt idx="300">
+                  <c:v>488</c:v>
+                </c:pt>
+                <c:pt idx="301">
+                  <c:v>424</c:v>
+                </c:pt>
+                <c:pt idx="302">
+                  <c:v>390</c:v>
+                </c:pt>
+                <c:pt idx="303">
+                  <c:v>238</c:v>
+                </c:pt>
+                <c:pt idx="304">
+                  <c:v>292</c:v>
+                </c:pt>
+                <c:pt idx="305">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="306">
+                  <c:v>491</c:v>
+                </c:pt>
+                <c:pt idx="307">
+                  <c:v>307</c:v>
+                </c:pt>
+                <c:pt idx="308">
+                  <c:v>435</c:v>
+                </c:pt>
+                <c:pt idx="309">
+                  <c:v>368</c:v>
+                </c:pt>
+                <c:pt idx="310">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="311">
+                  <c:v>294</c:v>
+                </c:pt>
+                <c:pt idx="312">
+                  <c:v>397</c:v>
+                </c:pt>
+                <c:pt idx="313">
+                  <c:v>155</c:v>
+                </c:pt>
+                <c:pt idx="314">
+                  <c:v>299</c:v>
+                </c:pt>
+                <c:pt idx="315">
+                  <c:v>448</c:v>
+                </c:pt>
+                <c:pt idx="316">
+                  <c:v>186</c:v>
+                </c:pt>
+                <c:pt idx="317">
+                  <c:v>492</c:v>
+                </c:pt>
+                <c:pt idx="318">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="319">
+                  <c:v>187</c:v>
+                </c:pt>
+                <c:pt idx="320">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="321">
+                  <c:v>267</c:v>
+                </c:pt>
+                <c:pt idx="322">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="323">
+                  <c:v>232</c:v>
+                </c:pt>
+                <c:pt idx="324">
+                  <c:v>229</c:v>
+                </c:pt>
+                <c:pt idx="325">
+                  <c:v>447</c:v>
+                </c:pt>
+                <c:pt idx="326">
+                  <c:v>243</c:v>
+                </c:pt>
+                <c:pt idx="327">
+                  <c:v>139</c:v>
+                </c:pt>
+                <c:pt idx="328">
+                  <c:v>257</c:v>
+                </c:pt>
+                <c:pt idx="329">
+                  <c:v>445</c:v>
+                </c:pt>
+                <c:pt idx="330">
+                  <c:v>381</c:v>
+                </c:pt>
+                <c:pt idx="331">
+                  <c:v>343</c:v>
+                </c:pt>
+                <c:pt idx="332">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="333">
+                  <c:v>483</c:v>
+                </c:pt>
+                <c:pt idx="334">
+                  <c:v>361</c:v>
+                </c:pt>
+                <c:pt idx="335">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="336">
+                  <c:v>152</c:v>
+                </c:pt>
+                <c:pt idx="337">
+                  <c:v>246</c:v>
+                </c:pt>
+                <c:pt idx="338">
+                  <c:v>173</c:v>
+                </c:pt>
+                <c:pt idx="339">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="340">
+                  <c:v>442</c:v>
+                </c:pt>
+                <c:pt idx="341">
+                  <c:v>466</c:v>
+                </c:pt>
+                <c:pt idx="342">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="343">
+                  <c:v>361</c:v>
+                </c:pt>
+                <c:pt idx="344">
+                  <c:v>403</c:v>
+                </c:pt>
+                <c:pt idx="345">
+                  <c:v>292</c:v>
+                </c:pt>
+                <c:pt idx="346">
+                  <c:v>351</c:v>
+                </c:pt>
+                <c:pt idx="347">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="348">
+                  <c:v>496</c:v>
+                </c:pt>
+                <c:pt idx="349">
+                  <c:v>139</c:v>
+                </c:pt>
+                <c:pt idx="350">
+                  <c:v>154</c:v>
+                </c:pt>
+                <c:pt idx="351">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="352">
+                  <c:v>438</c:v>
+                </c:pt>
+                <c:pt idx="353">
+                  <c:v>327</c:v>
+                </c:pt>
+                <c:pt idx="354">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="355">
+                  <c:v>477</c:v>
+                </c:pt>
+                <c:pt idx="356">
+                  <c:v>226</c:v>
+                </c:pt>
+                <c:pt idx="357">
+                  <c:v>470</c:v>
+                </c:pt>
+                <c:pt idx="358">
+                  <c:v>340</c:v>
+                </c:pt>
+                <c:pt idx="359">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="360">
+                  <c:v>468</c:v>
+                </c:pt>
+                <c:pt idx="361">
+                  <c:v>454</c:v>
+                </c:pt>
+                <c:pt idx="362">
+                  <c:v>426</c:v>
+                </c:pt>
+                <c:pt idx="363">
+                  <c:v>212</c:v>
+                </c:pt>
+                <c:pt idx="364">
+                  <c:v>146</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4462-4CA1-8620-81036A60CDAC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="455824616"/>
+        <c:axId val="455821008"/>
+      </c:lineChart>
+      <c:dateAx>
+        <c:axId val="455824616"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="m/d" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="455821008"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="days"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="455821008"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="455824616"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="0"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -3134,6 +5639,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -3151,7 +6172,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -3166,12 +6193,48 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>348</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>362</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{58C39712-9F22-4779-BE12-7DDD73EDB2BA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table2" displayName="Table2" ref="A2:B367" totalsRowShown="0">
-  <autoFilter ref="A2:B367">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table2" displayName="Table2" ref="A2:B367" totalsRowShown="0">
+  <autoFilter ref="A2:B367" xr:uid="{00000000-0009-0000-0100-000001000000}">
     <filterColumn colId="0">
       <filters>
         <dateGroupItem year="2010" month="12" dateTimeGrouping="month"/>
@@ -3179,8 +6242,8 @@
     </filterColumn>
   </autoFilter>
   <tableColumns count="2">
-    <tableColumn id="1" name="Date" dataDxfId="1"/>
-    <tableColumn id="2" name="Sales" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Date" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Sales" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3262,6 +6325,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -3297,6 +6377,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3472,22 +6569,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:C495"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="I354" sqref="I354"/>
+      <selection activeCell="B367" sqref="A2:B367"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.33203125" customWidth="1"/>
+    <col min="1" max="1" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -3495,7 +6592,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>40179</v>
       </c>
@@ -3503,7 +6600,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="4" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>40180</v>
       </c>
@@ -3511,7 +6608,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="5" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>40181</v>
       </c>
@@ -3519,7 +6616,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="6" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>40182</v>
       </c>
@@ -3527,7 +6624,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="7" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>40183</v>
       </c>
@@ -3535,7 +6632,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="8" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>40184</v>
       </c>
@@ -3543,7 +6640,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="9" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>40185</v>
       </c>
@@ -3551,7 +6648,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="10" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>40186</v>
       </c>
@@ -3559,7 +6656,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="11" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>40187</v>
       </c>
@@ -3567,7 +6664,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="12" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>40188</v>
       </c>
@@ -3575,7 +6672,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="13" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>40189</v>
       </c>
@@ -3583,7 +6680,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="14" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>40190</v>
       </c>
@@ -3591,7 +6688,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="15" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>40191</v>
       </c>
@@ -3599,7 +6696,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="16" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>40192</v>
       </c>
@@ -3607,7 +6704,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="17" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>40193</v>
       </c>
@@ -3615,7 +6712,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="18" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>40194</v>
       </c>
@@ -3623,7 +6720,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="19" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>40195</v>
       </c>
@@ -3631,7 +6728,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="20" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>40196</v>
       </c>
@@ -3639,7 +6736,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="21" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>40197</v>
       </c>
@@ -3647,7 +6744,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="22" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>40198</v>
       </c>
@@ -3655,7 +6752,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="23" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>40199</v>
       </c>
@@ -3663,7 +6760,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="24" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>40200</v>
       </c>
@@ -3671,7 +6768,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="25" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>40201</v>
       </c>
@@ -3679,7 +6776,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="26" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>40202</v>
       </c>
@@ -3687,7 +6784,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="27" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>40203</v>
       </c>
@@ -3695,7 +6792,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="28" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>40204</v>
       </c>
@@ -3703,7 +6800,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="29" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>40205</v>
       </c>
@@ -3711,7 +6808,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="30" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>40206</v>
       </c>
@@ -3719,7 +6816,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="31" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>40207</v>
       </c>
@@ -3727,7 +6824,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="32" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>40208</v>
       </c>
@@ -3735,7 +6832,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="33" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>40209</v>
       </c>
@@ -3743,7 +6840,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="34" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>40210</v>
       </c>
@@ -3751,7 +6848,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="35" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>40211</v>
       </c>
@@ -3759,7 +6856,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="36" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>40212</v>
       </c>
@@ -3767,7 +6864,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="37" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>40213</v>
       </c>
@@ -3775,7 +6872,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="38" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>40214</v>
       </c>
@@ -3783,7 +6880,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="39" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>40215</v>
       </c>
@@ -3791,7 +6888,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="40" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>40216</v>
       </c>
@@ -3799,7 +6896,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="41" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>40217</v>
       </c>
@@ -3807,7 +6904,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="42" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>40218</v>
       </c>
@@ -3815,7 +6912,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="43" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>40219</v>
       </c>
@@ -3823,7 +6920,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="44" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>40220</v>
       </c>
@@ -3831,7 +6928,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="45" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>40221</v>
       </c>
@@ -3839,7 +6936,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="46" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>40222</v>
       </c>
@@ -3847,7 +6944,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="47" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>40223</v>
       </c>
@@ -3855,7 +6952,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="48" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>40224</v>
       </c>
@@ -3863,7 +6960,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="49" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>40225</v>
       </c>
@@ -3871,7 +6968,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="50" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>40226</v>
       </c>
@@ -3879,7 +6976,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="51" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>40227</v>
       </c>
@@ -3887,7 +6984,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="52" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>40228</v>
       </c>
@@ -3895,7 +6992,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="53" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>40229</v>
       </c>
@@ -3903,7 +7000,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="54" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>40230</v>
       </c>
@@ -3911,7 +7008,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="55" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>40231</v>
       </c>
@@ -3919,7 +7016,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="56" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>40232</v>
       </c>
@@ -3927,7 +7024,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="57" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>40233</v>
       </c>
@@ -3935,7 +7032,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="58" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>40234</v>
       </c>
@@ -3943,7 +7040,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="59" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>40235</v>
       </c>
@@ -3951,7 +7048,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="60" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>40236</v>
       </c>
@@ -3959,7 +7056,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="61" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>40237</v>
       </c>
@@ -3967,7 +7064,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="62" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>40238</v>
       </c>
@@ -3975,7 +7072,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="63" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>40239</v>
       </c>
@@ -3983,7 +7080,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="64" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>40240</v>
       </c>
@@ -3991,7 +7088,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="65" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>40241</v>
       </c>
@@ -3999,7 +7096,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="66" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>40242</v>
       </c>
@@ -4007,7 +7104,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="67" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>40243</v>
       </c>
@@ -4015,7 +7112,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="68" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>40244</v>
       </c>
@@ -4023,7 +7120,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="69" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>40245</v>
       </c>
@@ -4031,7 +7128,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="70" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>40246</v>
       </c>
@@ -4039,7 +7136,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="71" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>40247</v>
       </c>
@@ -4047,7 +7144,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="72" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>40248</v>
       </c>
@@ -4055,7 +7152,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="73" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>40249</v>
       </c>
@@ -4063,7 +7160,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="74" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>40250</v>
       </c>
@@ -4071,7 +7168,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="75" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>40251</v>
       </c>
@@ -4079,7 +7176,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="76" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>40252</v>
       </c>
@@ -4087,7 +7184,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="77" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>40253</v>
       </c>
@@ -4095,7 +7192,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="78" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>40254</v>
       </c>
@@ -4103,7 +7200,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="79" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>40255</v>
       </c>
@@ -4111,7 +7208,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="80" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>40256</v>
       </c>
@@ -4119,7 +7216,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="81" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>40257</v>
       </c>
@@ -4127,7 +7224,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="82" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>40258</v>
       </c>
@@ -4135,7 +7232,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="83" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>40259</v>
       </c>
@@ -4143,7 +7240,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="84" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>40260</v>
       </c>
@@ -4151,7 +7248,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="85" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>40261</v>
       </c>
@@ -4159,7 +7256,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="86" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>40262</v>
       </c>
@@ -4167,7 +7264,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="87" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>40263</v>
       </c>
@@ -4175,7 +7272,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="88" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>40264</v>
       </c>
@@ -4183,7 +7280,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="89" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>40265</v>
       </c>
@@ -4191,7 +7288,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="90" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>40266</v>
       </c>
@@ -4199,7 +7296,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="91" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>40267</v>
       </c>
@@ -4207,7 +7304,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="92" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>40268</v>
       </c>
@@ -4215,7 +7312,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="93" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>40269</v>
       </c>
@@ -4223,7 +7320,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="94" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>40270</v>
       </c>
@@ -4231,7 +7328,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="95" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>40271</v>
       </c>
@@ -4239,7 +7336,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="96" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>40272</v>
       </c>
@@ -4247,7 +7344,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="97" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>40273</v>
       </c>
@@ -4255,7 +7352,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="98" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>40274</v>
       </c>
@@ -4263,7 +7360,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="99" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>40275</v>
       </c>
@@ -4271,7 +7368,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="100" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>40276</v>
       </c>
@@ -4279,7 +7376,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="101" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>40277</v>
       </c>
@@ -4287,7 +7384,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="102" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>40278</v>
       </c>
@@ -4295,7 +7392,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="103" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>40279</v>
       </c>
@@ -4306,7 +7403,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>40280</v>
       </c>
@@ -4314,7 +7411,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="105" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>40281</v>
       </c>
@@ -4322,7 +7419,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="106" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>40282</v>
       </c>
@@ -4330,7 +7427,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="107" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>40283</v>
       </c>
@@ -4338,7 +7435,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="108" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>40284</v>
       </c>
@@ -4346,7 +7443,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="109" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>40285</v>
       </c>
@@ -4354,7 +7451,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="110" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>40286</v>
       </c>
@@ -4362,7 +7459,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="111" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>40287</v>
       </c>
@@ -4370,7 +7467,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="112" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>40288</v>
       </c>
@@ -4378,7 +7475,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="113" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>40289</v>
       </c>
@@ -4386,7 +7483,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="114" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>40290</v>
       </c>
@@ -4394,7 +7491,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="115" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>40291</v>
       </c>
@@ -4402,7 +7499,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="116" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>40292</v>
       </c>
@@ -4410,7 +7507,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="117" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>40293</v>
       </c>
@@ -4418,7 +7515,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="118" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>40294</v>
       </c>
@@ -4426,7 +7523,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="119" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>40295</v>
       </c>
@@ -4434,7 +7531,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="120" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>40296</v>
       </c>
@@ -4442,7 +7539,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="121" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>40297</v>
       </c>
@@ -4450,7 +7547,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="122" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>40298</v>
       </c>
@@ -4458,7 +7555,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="123" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>40299</v>
       </c>
@@ -4466,7 +7563,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="124" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>40300</v>
       </c>
@@ -4474,7 +7571,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="125" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>40301</v>
       </c>
@@ -4482,7 +7579,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="126" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>40302</v>
       </c>
@@ -4490,7 +7587,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="127" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>40303</v>
       </c>
@@ -4498,7 +7595,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="128" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>40304</v>
       </c>
@@ -4506,7 +7603,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="129" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>40305</v>
       </c>
@@ -4514,7 +7611,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="130" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>40306</v>
       </c>
@@ -4522,7 +7619,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="131" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>40307</v>
       </c>
@@ -4530,7 +7627,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="132" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>40308</v>
       </c>
@@ -4538,7 +7635,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="133" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>40309</v>
       </c>
@@ -4546,7 +7643,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="134" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>40310</v>
       </c>
@@ -4554,7 +7651,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="135" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>40311</v>
       </c>
@@ -4562,7 +7659,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="136" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>40312</v>
       </c>
@@ -4570,7 +7667,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="137" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>40313</v>
       </c>
@@ -4578,7 +7675,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="138" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>40314</v>
       </c>
@@ -4586,7 +7683,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="139" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>40315</v>
       </c>
@@ -4594,7 +7691,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="140" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>40316</v>
       </c>
@@ -4602,7 +7699,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="141" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <v>40317</v>
       </c>
@@ -4610,7 +7707,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="142" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <v>40318</v>
       </c>
@@ -4618,7 +7715,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="143" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>40319</v>
       </c>
@@ -4626,7 +7723,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="144" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <v>40320</v>
       </c>
@@ -4634,7 +7731,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="145" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <v>40321</v>
       </c>
@@ -4642,7 +7739,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="146" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <v>40322</v>
       </c>
@@ -4650,7 +7747,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="147" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <v>40323</v>
       </c>
@@ -4658,7 +7755,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="148" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <v>40324</v>
       </c>
@@ -4666,7 +7763,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="149" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <v>40325</v>
       </c>
@@ -4674,7 +7771,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="150" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
         <v>40326</v>
       </c>
@@ -4682,7 +7779,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="151" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
         <v>40327</v>
       </c>
@@ -4690,7 +7787,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="152" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
         <v>40328</v>
       </c>
@@ -4698,7 +7795,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="153" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
         <v>40329</v>
       </c>
@@ -4706,7 +7803,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="154" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
         <v>40330</v>
       </c>
@@ -4714,7 +7811,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="155" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
         <v>40331</v>
       </c>
@@ -4722,7 +7819,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="156" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
         <v>40332</v>
       </c>
@@ -4730,7 +7827,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="157" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
         <v>40333</v>
       </c>
@@ -4738,7 +7835,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="158" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
         <v>40334</v>
       </c>
@@ -4746,7 +7843,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="159" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
         <v>40335</v>
       </c>
@@ -4754,7 +7851,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="160" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
         <v>40336</v>
       </c>
@@ -4762,7 +7859,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="161" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
         <v>40337</v>
       </c>
@@ -4770,7 +7867,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="162" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
         <v>40338</v>
       </c>
@@ -4778,7 +7875,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="163" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
         <v>40339</v>
       </c>
@@ -4786,7 +7883,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="164" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
         <v>40340</v>
       </c>
@@ -4794,7 +7891,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="165" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
         <v>40341</v>
       </c>
@@ -4802,7 +7899,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="166" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
         <v>40342</v>
       </c>
@@ -4810,7 +7907,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="167" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
         <v>40343</v>
       </c>
@@ -4818,7 +7915,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="168" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
         <v>40344</v>
       </c>
@@ -4826,7 +7923,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="169" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
         <v>40345</v>
       </c>
@@ -4834,7 +7931,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="170" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
         <v>40346</v>
       </c>
@@ -4842,7 +7939,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="171" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
         <v>40347</v>
       </c>
@@ -4850,7 +7947,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="172" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
         <v>40348</v>
       </c>
@@ -4858,7 +7955,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="173" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
         <v>40349</v>
       </c>
@@ -4866,7 +7963,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="174" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
         <v>40350</v>
       </c>
@@ -4874,7 +7971,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="175" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
         <v>40351</v>
       </c>
@@ -4882,7 +7979,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="176" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
         <v>40352</v>
       </c>
@@ -4890,7 +7987,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="177" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
         <v>40353</v>
       </c>
@@ -4898,7 +7995,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="178" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
         <v>40354</v>
       </c>
@@ -4906,7 +8003,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="179" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
         <v>40355</v>
       </c>
@@ -4914,7 +8011,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="180" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
         <v>40356</v>
       </c>
@@ -4922,7 +8019,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="181" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
         <v>40357</v>
       </c>
@@ -4930,7 +8027,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="182" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
         <v>40358</v>
       </c>
@@ -4938,7 +8035,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="183" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
         <v>40359</v>
       </c>
@@ -4946,7 +8043,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="184" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
         <v>40360</v>
       </c>
@@ -4954,7 +8051,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="185" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
         <v>40361</v>
       </c>
@@ -4962,7 +8059,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="186" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
         <v>40362</v>
       </c>
@@ -4970,7 +8067,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="187" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187" s="1">
         <v>40363</v>
       </c>
@@ -4978,7 +8075,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="188" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
         <v>40364</v>
       </c>
@@ -4986,7 +8083,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="189" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A189" s="1">
         <v>40365</v>
       </c>
@@ -4994,7 +8091,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="190" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A190" s="1">
         <v>40366</v>
       </c>
@@ -5002,7 +8099,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="191" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A191" s="1">
         <v>40367</v>
       </c>
@@ -5010,7 +8107,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="192" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A192" s="1">
         <v>40368</v>
       </c>
@@ -5018,7 +8115,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="193" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A193" s="1">
         <v>40369</v>
       </c>
@@ -5026,7 +8123,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="194" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A194" s="1">
         <v>40370</v>
       </c>
@@ -5034,7 +8131,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="195" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A195" s="1">
         <v>40371</v>
       </c>
@@ -5042,7 +8139,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="196" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A196" s="1">
         <v>40372</v>
       </c>
@@ -5050,7 +8147,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="197" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A197" s="1">
         <v>40373</v>
       </c>
@@ -5058,7 +8155,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="198" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A198" s="1">
         <v>40374</v>
       </c>
@@ -5066,7 +8163,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="199" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A199" s="1">
         <v>40375</v>
       </c>
@@ -5074,7 +8171,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="200" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A200" s="1">
         <v>40376</v>
       </c>
@@ -5082,7 +8179,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="201" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A201" s="1">
         <v>40377</v>
       </c>
@@ -5090,7 +8187,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="202" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A202" s="1">
         <v>40378</v>
       </c>
@@ -5098,7 +8195,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="203" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A203" s="1">
         <v>40379</v>
       </c>
@@ -5106,7 +8203,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="204" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A204" s="1">
         <v>40380</v>
       </c>
@@ -5114,7 +8211,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="205" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A205" s="1">
         <v>40381</v>
       </c>
@@ -5122,7 +8219,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="206" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A206" s="1">
         <v>40382</v>
       </c>
@@ -5130,7 +8227,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="207" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A207" s="1">
         <v>40383</v>
       </c>
@@ -5138,7 +8235,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="208" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A208" s="1">
         <v>40384</v>
       </c>
@@ -5146,7 +8243,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="209" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A209" s="1">
         <v>40385</v>
       </c>
@@ -5154,7 +8251,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="210" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A210" s="1">
         <v>40386</v>
       </c>
@@ -5162,7 +8259,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="211" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A211" s="1">
         <v>40387</v>
       </c>
@@ -5170,7 +8267,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="212" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A212" s="1">
         <v>40388</v>
       </c>
@@ -5178,7 +8275,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="213" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A213" s="1">
         <v>40389</v>
       </c>
@@ -5186,7 +8283,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="214" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A214" s="1">
         <v>40390</v>
       </c>
@@ -5194,7 +8291,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="215" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A215" s="1">
         <v>40391</v>
       </c>
@@ -5202,7 +8299,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="216" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A216" s="1">
         <v>40392</v>
       </c>
@@ -5210,7 +8307,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="217" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A217" s="1">
         <v>40393</v>
       </c>
@@ -5218,7 +8315,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="218" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A218" s="1">
         <v>40394</v>
       </c>
@@ -5226,7 +8323,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="219" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A219" s="1">
         <v>40395</v>
       </c>
@@ -5234,7 +8331,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="220" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A220" s="1">
         <v>40396</v>
       </c>
@@ -5242,7 +8339,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="221" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A221" s="1">
         <v>40397</v>
       </c>
@@ -5250,7 +8347,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="222" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A222" s="1">
         <v>40398</v>
       </c>
@@ -5258,7 +8355,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="223" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A223" s="1">
         <v>40399</v>
       </c>
@@ -5266,7 +8363,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="224" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A224" s="1">
         <v>40400</v>
       </c>
@@ -5274,7 +8371,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="225" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A225" s="1">
         <v>40401</v>
       </c>
@@ -5282,7 +8379,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="226" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A226" s="1">
         <v>40402</v>
       </c>
@@ -5290,7 +8387,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="227" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A227" s="1">
         <v>40403</v>
       </c>
@@ -5298,7 +8395,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="228" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A228" s="1">
         <v>40404</v>
       </c>
@@ -5306,7 +8403,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="229" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A229" s="1">
         <v>40405</v>
       </c>
@@ -5314,7 +8411,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="230" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A230" s="1">
         <v>40406</v>
       </c>
@@ -5322,7 +8419,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="231" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A231" s="1">
         <v>40407</v>
       </c>
@@ -5330,7 +8427,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="232" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A232" s="1">
         <v>40408</v>
       </c>
@@ -5338,7 +8435,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="233" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A233" s="1">
         <v>40409</v>
       </c>
@@ -5346,7 +8443,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="234" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A234" s="1">
         <v>40410</v>
       </c>
@@ -5354,7 +8451,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="235" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A235" s="1">
         <v>40411</v>
       </c>
@@ -5362,7 +8459,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="236" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A236" s="1">
         <v>40412</v>
       </c>
@@ -5370,7 +8467,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="237" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A237" s="1">
         <v>40413</v>
       </c>
@@ -5378,7 +8475,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="238" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A238" s="1">
         <v>40414</v>
       </c>
@@ -5386,7 +8483,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="239" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A239" s="1">
         <v>40415</v>
       </c>
@@ -5394,7 +8491,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="240" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A240" s="1">
         <v>40416</v>
       </c>
@@ -5402,7 +8499,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="241" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A241" s="1">
         <v>40417</v>
       </c>
@@ -5410,7 +8507,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="242" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A242" s="1">
         <v>40418</v>
       </c>
@@ -5418,7 +8515,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="243" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A243" s="1">
         <v>40419</v>
       </c>
@@ -5426,7 +8523,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="244" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A244" s="1">
         <v>40420</v>
       </c>
@@ -5434,7 +8531,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="245" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A245" s="1">
         <v>40421</v>
       </c>
@@ -5442,7 +8539,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="246" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A246" s="1">
         <v>40422</v>
       </c>
@@ -5450,7 +8547,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="247" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A247" s="1">
         <v>40423</v>
       </c>
@@ -5458,7 +8555,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="248" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A248" s="1">
         <v>40424</v>
       </c>
@@ -5466,7 +8563,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="249" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A249" s="1">
         <v>40425</v>
       </c>
@@ -5474,7 +8571,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="250" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A250" s="1">
         <v>40426</v>
       </c>
@@ -5482,7 +8579,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="251" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A251" s="1">
         <v>40427</v>
       </c>
@@ -5490,7 +8587,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="252" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A252" s="1">
         <v>40428</v>
       </c>
@@ -5498,7 +8595,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="253" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A253" s="1">
         <v>40429</v>
       </c>
@@ -5506,7 +8603,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="254" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A254" s="1">
         <v>40430</v>
       </c>
@@ -5514,7 +8611,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="255" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A255" s="1">
         <v>40431</v>
       </c>
@@ -5522,7 +8619,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="256" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A256" s="1">
         <v>40432</v>
       </c>
@@ -5530,7 +8627,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="257" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A257" s="1">
         <v>40433</v>
       </c>
@@ -5538,7 +8635,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="258" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A258" s="1">
         <v>40434</v>
       </c>
@@ -5546,7 +8643,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="259" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A259" s="1">
         <v>40435</v>
       </c>
@@ -5554,7 +8651,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="260" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A260" s="1">
         <v>40436</v>
       </c>
@@ -5562,7 +8659,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="261" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A261" s="1">
         <v>40437</v>
       </c>
@@ -5570,7 +8667,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="262" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A262" s="1">
         <v>40438</v>
       </c>
@@ -5578,7 +8675,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="263" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A263" s="1">
         <v>40439</v>
       </c>
@@ -5586,7 +8683,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="264" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A264" s="1">
         <v>40440</v>
       </c>
@@ -5594,7 +8691,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="265" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A265" s="1">
         <v>40441</v>
       </c>
@@ -5602,7 +8699,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="266" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A266" s="1">
         <v>40442</v>
       </c>
@@ -5610,7 +8707,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="267" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A267" s="1">
         <v>40443</v>
       </c>
@@ -5618,7 +8715,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="268" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A268" s="1">
         <v>40444</v>
       </c>
@@ -5626,7 +8723,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="269" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A269" s="1">
         <v>40445</v>
       </c>
@@ -5634,7 +8731,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="270" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A270" s="1">
         <v>40446</v>
       </c>
@@ -5642,7 +8739,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="271" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A271" s="1">
         <v>40447</v>
       </c>
@@ -5650,7 +8747,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="272" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A272" s="1">
         <v>40448</v>
       </c>
@@ -5658,7 +8755,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="273" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A273" s="1">
         <v>40449</v>
       </c>
@@ -5666,7 +8763,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="274" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A274" s="1">
         <v>40450</v>
       </c>
@@ -5674,7 +8771,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="275" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A275" s="1">
         <v>40451</v>
       </c>
@@ -5682,7 +8779,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="276" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A276" s="1">
         <v>40452</v>
       </c>
@@ -5690,7 +8787,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="277" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A277" s="1">
         <v>40453</v>
       </c>
@@ -5698,7 +8795,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="278" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A278" s="1">
         <v>40454</v>
       </c>
@@ -5706,7 +8803,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="279" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A279" s="1">
         <v>40455</v>
       </c>
@@ -5714,7 +8811,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="280" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A280" s="1">
         <v>40456</v>
       </c>
@@ -5722,7 +8819,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="281" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A281" s="1">
         <v>40457</v>
       </c>
@@ -5730,7 +8827,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="282" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A282" s="1">
         <v>40458</v>
       </c>
@@ -5738,7 +8835,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="283" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A283" s="1">
         <v>40459</v>
       </c>
@@ -5746,7 +8843,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="284" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A284" s="1">
         <v>40460</v>
       </c>
@@ -5754,7 +8851,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="285" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A285" s="1">
         <v>40461</v>
       </c>
@@ -5762,7 +8859,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="286" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A286" s="1">
         <v>40462</v>
       </c>
@@ -5770,7 +8867,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="287" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A287" s="1">
         <v>40463</v>
       </c>
@@ -5778,7 +8875,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="288" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A288" s="1">
         <v>40464</v>
       </c>
@@ -5786,7 +8883,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="289" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A289" s="1">
         <v>40465</v>
       </c>
@@ -5794,7 +8891,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="290" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A290" s="1">
         <v>40466</v>
       </c>
@@ -5802,7 +8899,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="291" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A291" s="1">
         <v>40467</v>
       </c>
@@ -5810,7 +8907,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="292" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A292" s="1">
         <v>40468</v>
       </c>
@@ -5818,7 +8915,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="293" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A293" s="1">
         <v>40469</v>
       </c>
@@ -5826,7 +8923,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="294" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A294" s="1">
         <v>40470</v>
       </c>
@@ -5834,7 +8931,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="295" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A295" s="1">
         <v>40471</v>
       </c>
@@ -5842,7 +8939,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="296" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A296" s="1">
         <v>40472</v>
       </c>
@@ -5850,7 +8947,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="297" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A297" s="1">
         <v>40473</v>
       </c>
@@ -5858,7 +8955,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="298" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A298" s="1">
         <v>40474</v>
       </c>
@@ -5866,7 +8963,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="299" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A299" s="1">
         <v>40475</v>
       </c>
@@ -5874,7 +8971,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="300" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A300" s="1">
         <v>40476</v>
       </c>
@@ -5882,7 +8979,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="301" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A301" s="1">
         <v>40477</v>
       </c>
@@ -5890,7 +8987,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="302" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A302" s="1">
         <v>40478</v>
       </c>
@@ -5898,7 +8995,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="303" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A303" s="1">
         <v>40479</v>
       </c>
@@ -5906,7 +9003,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="304" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A304" s="1">
         <v>40480</v>
       </c>
@@ -5914,7 +9011,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="305" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A305" s="1">
         <v>40481</v>
       </c>
@@ -5922,7 +9019,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="306" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A306" s="1">
         <v>40482</v>
       </c>
@@ -5930,7 +9027,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="307" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A307" s="1">
         <v>40483</v>
       </c>
@@ -5938,7 +9035,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="308" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A308" s="1">
         <v>40484</v>
       </c>
@@ -5946,7 +9043,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="309" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A309" s="1">
         <v>40485</v>
       </c>
@@ -5954,7 +9051,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="310" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A310" s="1">
         <v>40486</v>
       </c>
@@ -5962,7 +9059,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="311" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A311" s="1">
         <v>40487</v>
       </c>
@@ -5970,7 +9067,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="312" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A312" s="1">
         <v>40488</v>
       </c>
@@ -5978,7 +9075,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="313" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A313" s="1">
         <v>40489</v>
       </c>
@@ -5986,7 +9083,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="314" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A314" s="1">
         <v>40490</v>
       </c>
@@ -5994,7 +9091,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="315" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A315" s="1">
         <v>40491</v>
       </c>
@@ -6002,7 +9099,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="316" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A316" s="1">
         <v>40492</v>
       </c>
@@ -6010,7 +9107,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="317" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A317" s="1">
         <v>40493</v>
       </c>
@@ -6018,7 +9115,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="318" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A318" s="1">
         <v>40494</v>
       </c>
@@ -6026,7 +9123,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="319" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A319" s="1">
         <v>40495</v>
       </c>
@@ -6034,7 +9131,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="320" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A320" s="1">
         <v>40496</v>
       </c>
@@ -6042,7 +9139,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="321" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A321" s="1">
         <v>40497</v>
       </c>
@@ -6050,7 +9147,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="322" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A322" s="1">
         <v>40498</v>
       </c>
@@ -6058,7 +9155,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="323" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A323" s="1">
         <v>40499</v>
       </c>
@@ -6066,7 +9163,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="324" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A324" s="1">
         <v>40500</v>
       </c>
@@ -6074,7 +9171,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="325" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A325" s="1">
         <v>40501</v>
       </c>
@@ -6082,7 +9179,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="326" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A326" s="1">
         <v>40502</v>
       </c>
@@ -6090,7 +9187,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="327" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A327" s="1">
         <v>40503</v>
       </c>
@@ -6098,7 +9195,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="328" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A328" s="1">
         <v>40504</v>
       </c>
@@ -6106,7 +9203,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="329" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A329" s="1">
         <v>40505</v>
       </c>
@@ -6114,7 +9211,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="330" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A330" s="1">
         <v>40506</v>
       </c>
@@ -6122,7 +9219,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="331" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A331" s="1">
         <v>40507</v>
       </c>
@@ -6130,7 +9227,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="332" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A332" s="1">
         <v>40508</v>
       </c>
@@ -6138,7 +9235,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="333" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A333" s="1">
         <v>40509</v>
       </c>
@@ -6146,7 +9243,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="334" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A334" s="1">
         <v>40510</v>
       </c>
@@ -6154,7 +9251,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="335" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A335" s="1">
         <v>40511</v>
       </c>
@@ -6162,7 +9259,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="336" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A336" s="1">
         <v>40512</v>
       </c>
@@ -6170,7 +9267,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="337" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A337" s="1">
         <v>40513</v>
       </c>
@@ -6178,7 +9275,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="338" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A338" s="1">
         <v>40514</v>
       </c>
@@ -6186,7 +9283,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="339" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A339" s="1">
         <v>40515</v>
       </c>
@@ -6194,7 +9291,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="340" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A340" s="1">
         <v>40516</v>
       </c>
@@ -6202,7 +9299,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="341" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A341" s="1">
         <v>40517</v>
       </c>
@@ -6210,7 +9307,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="342" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A342" s="1">
         <v>40518</v>
       </c>
@@ -6218,7 +9315,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="343" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A343" s="1">
         <v>40519</v>
       </c>
@@ -6226,7 +9323,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="344" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A344" s="1">
         <v>40520</v>
       </c>
@@ -6234,7 +9331,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="345" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A345" s="1">
         <v>40521</v>
       </c>
@@ -6242,7 +9339,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="346" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A346" s="1">
         <v>40522</v>
       </c>
@@ -6250,7 +9347,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="347" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A347" s="1">
         <v>40523</v>
       </c>
@@ -6258,7 +9355,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="348" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A348" s="1">
         <v>40524</v>
       </c>
@@ -6266,7 +9363,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="349" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A349" s="1">
         <v>40525</v>
       </c>
@@ -6274,7 +9371,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="350" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A350" s="1">
         <v>40526</v>
       </c>
@@ -6282,7 +9379,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="351" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A351" s="1">
         <v>40527</v>
       </c>
@@ -6290,7 +9387,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="352" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A352" s="1">
         <v>40528</v>
       </c>
@@ -6298,7 +9395,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="353" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A353" s="1">
         <v>40529</v>
       </c>
@@ -6306,7 +9403,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="354" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A354" s="1">
         <v>40530</v>
       </c>
@@ -6314,7 +9411,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="355" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A355" s="1">
         <v>40531</v>
       </c>
@@ -6322,7 +9419,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="356" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A356" s="1">
         <v>40532</v>
       </c>
@@ -6330,7 +9427,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="357" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A357" s="1">
         <v>40533</v>
       </c>
@@ -6338,7 +9435,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="358" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A358" s="1">
         <v>40534</v>
       </c>
@@ -6346,7 +9443,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="359" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A359" s="1">
         <v>40535</v>
       </c>
@@ -6354,7 +9451,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="360" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A360" s="1">
         <v>40536</v>
       </c>
@@ -6362,7 +9459,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="361" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A361" s="1">
         <v>40537</v>
       </c>
@@ -6370,7 +9467,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="362" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A362" s="1">
         <v>40538</v>
       </c>
@@ -6378,7 +9475,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="363" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A363" s="1">
         <v>40539</v>
       </c>
@@ -6386,7 +9483,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="364" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A364" s="1">
         <v>40540</v>
       </c>
@@ -6394,7 +9491,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="365" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A365" s="1">
         <v>40541</v>
       </c>
@@ -6402,7 +9499,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="366" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A366" s="1">
         <v>40542</v>
       </c>
@@ -6410,7 +9507,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="367" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A367" s="1">
         <v>40543</v>
       </c>
@@ -6418,388 +9515,388 @@
         <v>146</v>
       </c>
     </row>
-    <row r="368" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A368" s="3"/>
     </row>
-    <row r="369" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A369" s="3"/>
     </row>
-    <row r="370" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A370" s="3"/>
     </row>
-    <row r="371" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A371" s="3"/>
     </row>
-    <row r="372" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A372" s="3"/>
     </row>
-    <row r="373" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A373" s="3"/>
     </row>
-    <row r="374" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A374" s="3"/>
     </row>
-    <row r="375" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A375" s="3"/>
     </row>
-    <row r="376" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A376" s="3"/>
     </row>
-    <row r="377" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A377" s="3"/>
     </row>
-    <row r="378" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A378" s="3"/>
     </row>
-    <row r="379" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A379" s="3"/>
     </row>
-    <row r="380" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A380" s="3"/>
     </row>
-    <row r="381" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A381" s="3"/>
     </row>
-    <row r="382" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A382" s="3"/>
     </row>
-    <row r="383" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A383" s="3"/>
     </row>
-    <row r="384" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A384" s="3"/>
     </row>
-    <row r="385" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A385" s="3"/>
     </row>
-    <row r="386" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A386" s="3"/>
     </row>
-    <row r="387" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A387" s="3"/>
     </row>
-    <row r="388" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A388" s="3"/>
     </row>
-    <row r="389" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A389" s="3"/>
     </row>
-    <row r="390" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A390" s="3"/>
     </row>
-    <row r="391" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A391" s="3"/>
     </row>
-    <row r="392" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A392" s="3"/>
     </row>
-    <row r="393" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A393" s="3"/>
     </row>
-    <row r="394" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A394" s="3"/>
     </row>
-    <row r="395" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A395" s="3"/>
     </row>
-    <row r="396" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A396" s="3"/>
     </row>
-    <row r="397" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A397" s="3"/>
     </row>
-    <row r="398" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A398" s="3"/>
     </row>
-    <row r="399" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A399" s="3"/>
     </row>
-    <row r="400" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A400" s="3"/>
     </row>
-    <row r="401" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A401" s="3"/>
     </row>
-    <row r="402" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A402" s="3"/>
     </row>
-    <row r="403" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A403" s="3"/>
     </row>
-    <row r="404" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A404" s="3"/>
     </row>
-    <row r="405" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A405" s="3"/>
     </row>
-    <row r="406" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A406" s="3"/>
     </row>
-    <row r="407" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A407" s="3"/>
     </row>
-    <row r="408" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A408" s="3"/>
     </row>
-    <row r="409" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A409" s="3"/>
     </row>
-    <row r="410" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A410" s="3"/>
     </row>
-    <row r="411" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A411" s="3"/>
     </row>
-    <row r="412" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A412" s="3"/>
     </row>
-    <row r="413" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A413" s="3"/>
     </row>
-    <row r="414" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A414" s="3"/>
     </row>
-    <row r="415" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A415" s="3"/>
     </row>
-    <row r="416" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A416" s="3"/>
     </row>
-    <row r="417" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A417" s="3"/>
     </row>
-    <row r="418" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A418" s="3"/>
     </row>
-    <row r="419" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A419" s="3"/>
     </row>
-    <row r="420" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A420" s="3"/>
     </row>
-    <row r="421" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A421" s="3"/>
     </row>
-    <row r="422" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A422" s="3"/>
     </row>
-    <row r="423" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A423" s="3"/>
     </row>
-    <row r="424" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A424" s="3"/>
     </row>
-    <row r="425" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A425" s="3"/>
     </row>
-    <row r="426" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A426" s="3"/>
     </row>
-    <row r="427" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A427" s="3"/>
     </row>
-    <row r="428" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A428" s="3"/>
     </row>
-    <row r="429" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A429" s="3"/>
     </row>
-    <row r="430" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A430" s="3"/>
     </row>
-    <row r="431" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A431" s="3"/>
     </row>
-    <row r="432" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A432" s="3"/>
     </row>
-    <row r="433" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A433" s="3"/>
     </row>
-    <row r="434" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A434" s="3"/>
     </row>
-    <row r="435" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A435" s="3"/>
     </row>
-    <row r="436" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A436" s="3"/>
     </row>
-    <row r="437" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A437" s="3"/>
     </row>
-    <row r="438" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A438" s="3"/>
     </row>
-    <row r="439" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A439" s="3"/>
     </row>
-    <row r="440" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A440" s="3"/>
     </row>
-    <row r="441" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A441" s="3"/>
     </row>
-    <row r="442" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A442" s="3"/>
     </row>
-    <row r="443" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A443" s="3"/>
     </row>
-    <row r="444" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A444" s="3"/>
     </row>
-    <row r="445" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A445" s="3"/>
     </row>
-    <row r="446" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A446" s="3"/>
     </row>
-    <row r="447" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A447" s="3"/>
     </row>
-    <row r="448" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A448" s="3"/>
     </row>
-    <row r="449" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A449" s="3"/>
     </row>
-    <row r="450" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A450" s="3"/>
     </row>
-    <row r="451" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A451" s="3"/>
     </row>
-    <row r="452" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A452" s="3"/>
     </row>
-    <row r="453" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A453" s="3"/>
     </row>
-    <row r="454" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A454" s="3"/>
     </row>
-    <row r="455" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A455" s="3"/>
     </row>
-    <row r="456" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A456" s="3"/>
     </row>
-    <row r="457" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A457" s="3"/>
     </row>
-    <row r="458" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A458" s="3"/>
     </row>
-    <row r="459" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A459" s="3"/>
     </row>
-    <row r="460" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A460" s="3"/>
     </row>
-    <row r="461" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A461" s="3"/>
     </row>
-    <row r="462" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A462" s="3"/>
     </row>
-    <row r="463" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A463" s="3"/>
     </row>
-    <row r="464" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A464" s="3"/>
     </row>
-    <row r="465" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A465" s="3"/>
     </row>
-    <row r="466" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A466" s="3"/>
     </row>
-    <row r="467" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A467" s="3"/>
     </row>
-    <row r="468" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A468" s="3"/>
     </row>
-    <row r="469" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A469" s="3"/>
     </row>
-    <row r="470" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A470" s="3"/>
     </row>
-    <row r="471" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A471" s="3"/>
     </row>
-    <row r="472" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A472" s="3"/>
     </row>
-    <row r="473" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A473" s="3"/>
     </row>
-    <row r="474" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A474" s="3"/>
     </row>
-    <row r="475" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A475" s="3"/>
     </row>
-    <row r="476" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A476" s="3"/>
     </row>
-    <row r="477" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A477" s="3"/>
     </row>
-    <row r="478" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A478" s="3"/>
     </row>
-    <row r="479" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A479" s="3"/>
     </row>
-    <row r="480" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A480" s="3"/>
     </row>
-    <row r="481" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A481" s="3"/>
     </row>
-    <row r="482" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A482" s="3"/>
     </row>
-    <row r="483" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A483" s="3"/>
     </row>
-    <row r="484" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A484" s="3"/>
     </row>
-    <row r="485" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A485" s="3"/>
     </row>
-    <row r="486" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A486" s="3"/>
     </row>
-    <row r="487" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A487" s="3"/>
     </row>
-    <row r="488" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A488" s="3"/>
     </row>
-    <row r="489" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A489" s="3"/>
     </row>
-    <row r="490" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A490" s="3"/>
     </row>
-    <row r="491" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A491" s="3"/>
     </row>
-    <row r="492" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A492" s="3"/>
     </row>
-    <row r="493" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A493" s="3"/>
     </row>
-    <row r="494" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A494" s="3"/>
     </row>
-    <row r="495" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A495" s="3"/>
     </row>
   </sheetData>
